--- a/medicine/Mort/Cave_Hill_Cemetery/Cave_Hill_Cemetery.xlsx
+++ b/medicine/Mort/Cave_Hill_Cemetery/Cave_Hill_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cave Hill Cemetery est un cimetière national dans le style de l'époque victorienne et un arboretum situé à Louisville (Kentucky). Il s'agit du plus grand (120 ha) cimetière de la ville. Le cimetière est listé sur le Registre national des lieux historiques depuis 1979. La partie militaire du cimetière fait également partie de ce registre depuis 1998.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cave Hill fut créé en 1848 à l'emplacement d'une ancienne ferme. En 1846, le maire Frederick A. Kaye eut l'idée de créer un cimetière décoré dans le style d'un jardin ce qui était populaire à l'époque. Un ingénieur civil du nom d'Edmund Francis Lee fut employé pour dessiner les plans. Les tombes devaient être placées sur les collines alors que les zones basses étaient décorées de lacs et d'étangs. Le cimetière fut ouvert à partir du 25 juillet 1848[1]. À partir de la guerre de Sécession, des terres furent employées pour accueillir des tombes de soldats. En 1888, le terrain fut agrandi et il atteignit sa taille actuelle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cave Hill fut créé en 1848 à l'emplacement d'une ancienne ferme. En 1846, le maire Frederick A. Kaye eut l'idée de créer un cimetière décoré dans le style d'un jardin ce qui était populaire à l'époque. Un ingénieur civil du nom d'Edmund Francis Lee fut employé pour dessiner les plans. Les tombes devaient être placées sur les collines alors que les zones basses étaient décorées de lacs et d'étangs. Le cimetière fut ouvert à partir du 25 juillet 1848. À partir de la guerre de Sécession, des terres furent employées pour accueillir des tombes de soldats. En 1888, le terrain fut agrandi et il atteignit sa taille actuelle.
 En 2002, le lieu accueillait 120 000 personnes et permettait encore d'en accueillir 22 000. De nombreux hommes politiques y sont enterrés tout comme des soldats confédérés. Parmi les tombes se trouvent celles de quelques personnalités comme :
 Amelia B. Coppuck Welby, (1819-1852), poète américaine
 George Rogers Clark, officier lors de la guerre d'indépendance et fondateur de Louisville
